--- a/xlsx/country_comparison/support_likert_share.xlsx
+++ b/xlsx/country_comparison/support_likert_share.xlsx
@@ -69,10 +69,10 @@
 (US) / €100 million (Eu) for each human</t>
   </si>
   <si>
-    <t xml:space="preserve">National tax on millionaires funding public services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global tax on millionaires funding low-income countries</t>
+    <t xml:space="preserve">National tax on millionaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global tax on millionaires</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.552728771148849</v>
+        <v>0.552728777265518</v>
       </c>
       <c r="C2" t="n">
         <v>0.714657631857914</v>
@@ -455,7 +455,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.683819909691181</v>
+        <v>0.683819916214763</v>
       </c>
       <c r="C3" t="n">
         <v>0.819558096525353</v>
@@ -478,7 +478,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.60122804054739</v>
+        <v>0.601228048137448</v>
       </c>
       <c r="C4" t="n">
         <v>0.764763757253406</v>
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.455724812301251</v>
+        <v>0.455724822212522</v>
       </c>
       <c r="C5" t="n">
         <v>0.526932121926889</v>
@@ -524,7 +524,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.577843749391967</v>
+        <v>0.577843754383455</v>
       </c>
       <c r="C6" t="n">
         <v>0.705292862203935</v>
@@ -547,7 +547,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.617475305010099</v>
+        <v>0.617475309597398</v>
       </c>
       <c r="C7" t="n">
         <v>0.730504661209951</v>
@@ -570,7 +570,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.626785433727814</v>
+        <v>0.62678543767013</v>
       </c>
       <c r="C8" t="n">
         <v>0.795531688544377</v>
@@ -593,7 +593,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.619151188138165</v>
+        <v>0.619151190902255</v>
       </c>
       <c r="C9" t="n">
         <v>0.874801725484302</v>
@@ -616,7 +616,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.463335748409596</v>
+        <v>0.46333575494323</v>
       </c>
       <c r="C10" t="n">
         <v>0.621065025534817</v>
@@ -639,7 +639,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.73409839752618</v>
+        <v>0.73409839740255</v>
       </c>
       <c r="C11" t="n">
         <v>0.853956784923197</v>
@@ -662,7 +662,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0.690508031294778</v>
+        <v>0.690508031455644</v>
       </c>
       <c r="C12" t="n">
         <v>0.839351652890108</v>
